--- a/1.GDD/程式反饋.xlsx
+++ b/1.GDD/程式反饋.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="功能回饋" sheetId="1" r:id="rId1"/>
+    <sheet name="三月份" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>patrol base</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,11 +61,34 @@
     <t>移動速度正負要有第一次移動方向的不同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>提出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詠翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現況</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -105,7 +128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -114,6 +137,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,75 +442,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="42" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <v>43182</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>43182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
         <v>4</v>
       </c>
     </row>

--- a/1.GDD/程式反饋.xlsx
+++ b/1.GDD/程式反饋.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>patrol base</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,19 @@
   </si>
   <si>
     <t>目次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/25
+cool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鏡頭沒跟過去</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -140,6 +153,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,11 +461,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9" style="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="6" max="6" width="16.375" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" customWidth="1"/>
@@ -457,7 +474,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
@@ -483,6 +500,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B2" s="3">
         <v>43182</v>
       </c>
@@ -506,6 +526,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B3" s="3">
         <v>43182</v>
       </c>
@@ -529,8 +552,20 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>43184</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="1">
         <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
